--- a/01-Excel/01-Activites/2/Activities/07-Ins_Formatting/Solved/ConditionalFormatting.xlsx
+++ b/01-Excel/01-Activites/2/Activities/07-Ins_Formatting/Solved/ConditionalFormatting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/dev/bootcamp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/03-Ins_Formatting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/07-Ins_Formatting/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347FAE3D-CDED-4E4B-8CA8-4B87CC84756E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13120" yWindow="-25980" windowWidth="39820" windowHeight="20560"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorite Colors" sheetId="1" r:id="rId1"/>
@@ -17,16 +18,25 @@
   <definedNames>
     <definedName name="Colors">'Favorite Colors'!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -80,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,7 +511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
